--- a/MARGARET KANGETHE.xlsx
+++ b/MARGARET KANGETHE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="17955" windowHeight="11490" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="17955" windowHeight="11490" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER 20" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="204">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>FOR THE MONTH OFDECEMBER 2021</t>
+  </si>
+  <si>
+    <t>KELVIN NO.8BROKE AND VACCATED</t>
+  </si>
+  <si>
+    <t>GILBERT O.ONYANGO</t>
   </si>
 </sst>
 </file>
@@ -1251,6 +1257,21 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,21 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8646,15 +8652,15 @@
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="M1" s="69"/>
@@ -8672,26 +8678,26 @@
     </row>
     <row r="2" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="M2" s="69"/>
       <c r="N2" s="69"/>
       <c r="O2" s="27"/>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
       <c r="T2" s="28"/>
       <c r="U2" s="70"/>
       <c r="V2" s="70"/>
@@ -8700,25 +8706,25 @@
     </row>
     <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="M3" s="70"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="137"/>
       <c r="S3" s="71"/>
       <c r="T3" s="29"/>
       <c r="U3" s="70"/>
@@ -8759,14 +8765,14 @@
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="70"/>
-      <c r="O4" s="144" t="s">
+      <c r="O4" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
@@ -9255,18 +9261,18 @@
       <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
       <c r="M13" s="86" t="s">
         <v>124</v>
       </c>
@@ -9303,20 +9309,20 @@
       <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
       <c r="M14" s="76" t="s">
         <v>122</v>
       </c>
@@ -10151,18 +10157,18 @@
       <c r="X30" s="80"/>
     </row>
     <row r="31" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="E31" s="142" t="s">
+      <c r="B31" s="147"/>
+      <c r="E31" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="142"/>
-      <c r="H31" s="142" t="s">
+      <c r="F31" s="147"/>
+      <c r="H31" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="142"/>
+      <c r="I31" s="147"/>
       <c r="M31" s="76" t="s">
         <v>83</v>
       </c>
@@ -10198,18 +10204,18 @@
       <c r="X31" s="80"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="137"/>
-      <c r="E32" s="137" t="s">
+      <c r="B32" s="142"/>
+      <c r="E32" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="H32" s="137" t="s">
+      <c r="F32" s="142"/>
+      <c r="H32" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="142"/>
       <c r="M32" s="76" t="s">
         <v>84</v>
       </c>
@@ -10993,12 +10999,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="A32:B32"/>
@@ -11008,6 +11008,12 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B10 M6:M38">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="VACCANT">
@@ -11028,8 +11034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62:R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11050,15 +11056,15 @@
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="M1" s="69"/>
@@ -11076,26 +11082,26 @@
     </row>
     <row r="2" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="M2" s="69"/>
       <c r="N2" s="69"/>
       <c r="O2" s="27"/>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
       <c r="T2" s="28"/>
       <c r="U2" s="70"/>
       <c r="V2" s="70"/>
@@ -11104,25 +11110,25 @@
     </row>
     <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="M3" s="70"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="137"/>
       <c r="S3" s="71"/>
       <c r="T3" s="29"/>
       <c r="U3" s="70"/>
@@ -11163,14 +11169,14 @@
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="70"/>
-      <c r="O4" s="144" t="s">
+      <c r="O4" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
@@ -11670,18 +11676,18 @@
       <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
       <c r="M13" s="86" t="s">
         <v>124</v>
       </c>
@@ -11706,31 +11712,29 @@
         <f>P13+Q13+R13+S13+O13</f>
         <v>6450</v>
       </c>
-      <c r="U13" s="80">
-        <v>3500</v>
-      </c>
+      <c r="U13" s="80"/>
       <c r="V13" s="80">
         <f t="shared" si="3"/>
-        <v>2950</v>
+        <v>6450</v>
       </c>
       <c r="W13" s="80"/>
       <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
       <c r="M14" s="76" t="s">
         <v>195</v>
       </c>
@@ -12576,18 +12580,18 @@
       <c r="X30" s="80"/>
     </row>
     <row r="31" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="E31" s="142" t="s">
+      <c r="B31" s="147"/>
+      <c r="E31" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="142"/>
-      <c r="H31" s="142" t="s">
+      <c r="F31" s="147"/>
+      <c r="H31" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="142"/>
+      <c r="I31" s="147"/>
       <c r="M31" s="76" t="s">
         <v>83</v>
       </c>
@@ -12623,18 +12627,18 @@
       <c r="X31" s="80"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="137"/>
-      <c r="E32" s="137" t="s">
+      <c r="B32" s="142"/>
+      <c r="E32" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="H32" s="137" t="s">
+      <c r="F32" s="142"/>
+      <c r="H32" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="142"/>
       <c r="M32" s="76" t="s">
         <v>84</v>
       </c>
@@ -12891,11 +12895,11 @@
       </c>
       <c r="U39" s="80">
         <f>SUM(U6:U38)</f>
-        <v>119860</v>
+        <v>116360</v>
       </c>
       <c r="V39" s="80">
         <f>SUM(V6:V38)</f>
-        <v>16238</v>
+        <v>19738</v>
       </c>
       <c r="W39" s="80">
         <f>SUM(W6:W38)</f>
@@ -12964,7 +12968,7 @@
     <row r="42" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H42" s="119">
         <f>F29+P59</f>
-        <v>15416.5</v>
+        <v>8966.5</v>
       </c>
       <c r="M42" s="76" t="s">
         <v>191</v>
@@ -12982,7 +12986,7 @@
       <c r="S42" s="76"/>
       <c r="T42" s="99">
         <f>U39</f>
-        <v>119860</v>
+        <v>116360</v>
       </c>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
@@ -13243,9 +13247,13 @@
       <c r="X54" s="106"/>
     </row>
     <row r="55" spans="13:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M55" s="104"/>
+      <c r="M55" s="104" t="s">
+        <v>202</v>
+      </c>
       <c r="N55" s="103"/>
-      <c r="O55" s="122"/>
+      <c r="O55" s="122">
+        <v>6450</v>
+      </c>
       <c r="P55" s="99"/>
       <c r="Q55" s="99"/>
       <c r="R55" s="104"/>
@@ -13308,18 +13316,18 @@
       </c>
       <c r="O59" s="109">
         <f>SUM(O51:O58)</f>
-        <v>128960</v>
+        <v>135410</v>
       </c>
       <c r="P59" s="125">
         <f>N59-O59</f>
-        <v>-0.5</v>
+        <v>-6450.5</v>
       </c>
       <c r="Q59" s="109"/>
       <c r="R59" s="90"/>
       <c r="S59" s="90"/>
       <c r="T59" s="109">
         <f>T42+T43+T45+T47+T48</f>
-        <v>113339.5</v>
+        <v>109839.5</v>
       </c>
       <c r="U59" s="109">
         <f>SUM(U51:U58)</f>
@@ -13327,7 +13335,7 @@
       </c>
       <c r="V59" s="109">
         <f>T59-U59</f>
-        <v>-15620.5</v>
+        <v>-19120.5</v>
       </c>
       <c r="W59" s="109"/>
       <c r="X59" s="110"/>
@@ -13409,12 +13417,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="H32:I32"/>
@@ -13424,6 +13426,12 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:I31"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B10 M6:M38">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="VACCANT">
@@ -13443,14 +13451,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" customWidth="1"/>
@@ -13458,15 +13467,15 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="M1" s="69"/>
@@ -13484,26 +13493,26 @@
     </row>
     <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="M2" s="69"/>
       <c r="N2" s="69"/>
       <c r="O2" s="27"/>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
       <c r="T2" s="28"/>
       <c r="U2" s="70"/>
       <c r="V2" s="70"/>
@@ -13512,25 +13521,25 @@
     </row>
     <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="M3" s="70"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="137"/>
       <c r="S3" s="71"/>
       <c r="T3" s="29"/>
       <c r="U3" s="70"/>
@@ -13571,14 +13580,14 @@
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="70"/>
-      <c r="O4" s="144" t="s">
+      <c r="O4" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
@@ -13720,10 +13729,12 @@
         <f t="shared" si="0"/>
         <v>8650</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>8650</v>
+      </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>8650</v>
+        <v>0</v>
       </c>
       <c r="M7" s="82" t="s">
         <v>115</v>
@@ -13749,10 +13760,12 @@
         <f t="shared" ref="T7:T37" si="2">P7+Q7+R7+S7+O7</f>
         <v>3050</v>
       </c>
-      <c r="U7" s="80"/>
+      <c r="U7" s="80">
+        <v>3050</v>
+      </c>
       <c r="V7" s="80">
         <f t="shared" ref="V7:V38" si="3">T7-U7</f>
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="W7" s="80"/>
       <c r="X7" s="80"/>
@@ -13807,10 +13820,13 @@
         <f t="shared" si="2"/>
         <v>3080</v>
       </c>
-      <c r="U8" s="80"/>
+      <c r="U8" s="80">
+        <f>1600+1000</f>
+        <v>2600</v>
+      </c>
       <c r="V8" s="80">
         <f t="shared" si="3"/>
-        <v>3080</v>
+        <v>480</v>
       </c>
       <c r="W8" s="80"/>
       <c r="X8" s="80"/>
@@ -13968,11 +13984,11 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8650</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>26400</v>
+        <v>17750</v>
       </c>
       <c r="M11" s="85" t="s">
         <v>63</v>
@@ -13998,10 +14014,12 @@
         <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-      <c r="U11" s="80"/>
+      <c r="U11" s="80">
+        <v>3050</v>
+      </c>
       <c r="V11" s="80">
         <f t="shared" si="3"/>
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="W11" s="80"/>
       <c r="X11" s="80"/>
@@ -14057,65 +14075,66 @@
       <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
       <c r="M13" s="86" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="N13" s="77">
         <v>8</v>
       </c>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79">
-        <f>' NOVEMBER 21'!V13:V44</f>
-        <v>2950</v>
-      </c>
+      <c r="O13" s="78">
+        <v>3000</v>
+      </c>
+      <c r="P13" s="79"/>
       <c r="Q13" s="83">
-        <v>2500</v>
-      </c>
-      <c r="R13" s="81">
-        <v>350</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="R13" s="81"/>
       <c r="S13" s="83">
         <v>200</v>
       </c>
       <c r="T13" s="80">
         <f>P13+Q13+R13+S13+O13</f>
-        <v>6000</v>
-      </c>
-      <c r="U13" s="80"/>
+        <v>6200</v>
+      </c>
+      <c r="U13" s="80">
+        <v>6200</v>
+      </c>
       <c r="V13" s="80">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
+      <c r="X13" s="80">
+        <v>1500</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="145"/>
       <c r="M14" s="76" t="s">
         <v>195</v>
       </c>
@@ -14228,7 +14247,7 @@
       </c>
       <c r="H16" s="18">
         <f>I11</f>
-        <v>0</v>
+        <v>8650</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -14351,10 +14370,12 @@
         <f t="shared" si="2"/>
         <v>4300</v>
       </c>
-      <c r="U18" s="80"/>
+      <c r="U18" s="80">
+        <v>3050</v>
+      </c>
       <c r="V18" s="80">
         <f t="shared" si="3"/>
-        <v>4300</v>
+        <v>1250</v>
       </c>
       <c r="W18" s="80"/>
       <c r="X18" s="80"/>
@@ -14553,10 +14574,12 @@
         <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="U22" s="80"/>
+      <c r="U22" s="80">
+        <v>5050</v>
+      </c>
       <c r="V22" s="80">
         <f t="shared" si="3"/>
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="W22" s="80"/>
       <c r="X22" s="80"/>
@@ -14597,10 +14620,12 @@
         <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="U23" s="80"/>
+      <c r="U23" s="80">
+        <v>5050</v>
+      </c>
       <c r="V23" s="80">
         <f t="shared" si="3"/>
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="W23" s="80"/>
       <c r="X23" s="80"/>
@@ -14685,10 +14710,12 @@
         <f t="shared" si="2"/>
         <v>2820</v>
       </c>
-      <c r="U25" s="80"/>
+      <c r="U25" s="80">
+        <v>2820</v>
+      </c>
       <c r="V25" s="80">
         <f t="shared" si="3"/>
-        <v>2820</v>
+        <v>0</v>
       </c>
       <c r="W25" s="80"/>
       <c r="X25" s="80"/>
@@ -14728,10 +14755,12 @@
         <f t="shared" si="2"/>
         <v>3020</v>
       </c>
-      <c r="U26" s="80"/>
+      <c r="U26" s="80">
+        <v>3020</v>
+      </c>
       <c r="V26" s="80">
         <f t="shared" si="3"/>
-        <v>3020</v>
+        <v>0</v>
       </c>
       <c r="W26" s="80"/>
       <c r="X26" s="80"/>
@@ -14770,10 +14799,12 @@
         <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="U27" s="80"/>
+      <c r="U27" s="80">
+        <v>5050</v>
+      </c>
       <c r="V27" s="80">
         <f t="shared" si="3"/>
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="W27" s="80"/>
       <c r="X27" s="80"/>
@@ -14803,18 +14834,22 @@
       <c r="Q28" s="83">
         <v>2500</v>
       </c>
-      <c r="R28" s="81"/>
-      <c r="S28" s="83"/>
+      <c r="R28" s="81">
+        <v>350</v>
+      </c>
+      <c r="S28" s="83">
+        <v>200</v>
+      </c>
       <c r="T28" s="80">
         <f t="shared" si="2"/>
-        <v>3750</v>
+        <v>4300</v>
       </c>
       <c r="U28" s="80">
         <v>3050</v>
       </c>
       <c r="V28" s="80">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="W28" s="80"/>
       <c r="X28" s="80"/>
@@ -14842,7 +14877,7 @@
       </c>
       <c r="H29" s="133">
         <f>H16+H17-I21</f>
-        <v>13937</v>
+        <v>22587</v>
       </c>
       <c r="I29" s="133">
         <f>SUM(I23:I28)</f>
@@ -14850,7 +14885,7 @@
       </c>
       <c r="J29" s="133">
         <f>H29-I29</f>
-        <v>13937</v>
+        <v>22587</v>
       </c>
       <c r="M29" s="76" t="s">
         <v>80</v>
@@ -14924,18 +14959,18 @@
       <c r="X30" s="80"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="E31" s="142" t="s">
+      <c r="B31" s="147"/>
+      <c r="E31" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="142"/>
-      <c r="H31" s="142" t="s">
+      <c r="F31" s="147"/>
+      <c r="H31" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="142"/>
+      <c r="I31" s="147"/>
       <c r="M31" s="76" t="s">
         <v>83</v>
       </c>
@@ -14969,18 +15004,18 @@
       <c r="X31" s="80"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="137"/>
-      <c r="E32" s="137" t="s">
+      <c r="B32" s="142"/>
+      <c r="E32" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="H32" s="137" t="s">
+      <c r="F32" s="142"/>
+      <c r="H32" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="142"/>
       <c r="M32" s="76" t="s">
         <v>84</v>
       </c>
@@ -15005,10 +15040,12 @@
         <f t="shared" si="2"/>
         <v>7060</v>
       </c>
-      <c r="U32" s="80"/>
+      <c r="U32" s="80">
+        <v>1900</v>
+      </c>
       <c r="V32" s="80">
         <f t="shared" si="3"/>
-        <v>7060</v>
+        <v>5160</v>
       </c>
       <c r="W32" s="80"/>
       <c r="X32" s="69"/>
@@ -15074,10 +15111,12 @@
         <f t="shared" si="2"/>
         <v>5570</v>
       </c>
-      <c r="U34" s="80"/>
+      <c r="U34" s="80">
+        <v>5050</v>
+      </c>
       <c r="V34" s="80">
         <f t="shared" si="3"/>
-        <v>5570</v>
+        <v>520</v>
       </c>
       <c r="W34" s="80"/>
       <c r="X34" s="80"/>
@@ -15157,10 +15196,12 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="U37" s="80"/>
+      <c r="U37" s="80">
+        <v>7000</v>
+      </c>
       <c r="V37" s="80">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W37" s="80"/>
       <c r="X37" s="80"/>
@@ -15188,10 +15229,12 @@
         <f>P38+Q38+R38+S38+O38</f>
         <v>7000</v>
       </c>
-      <c r="U38" s="80"/>
+      <c r="U38" s="80">
+        <v>7000</v>
+      </c>
       <c r="V38" s="80">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W38" s="80"/>
       <c r="X38" s="80"/>
@@ -15203,15 +15246,15 @@
       <c r="N39" s="76"/>
       <c r="O39" s="78">
         <f t="shared" ref="O39:X39" si="5">SUM(O6:O38)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P39" s="79">
         <f>SUM(P6:P38)</f>
-        <v>16238</v>
+        <v>13288</v>
       </c>
       <c r="Q39" s="91">
         <f>SUM(Q6:Q38)</f>
-        <v>105900</v>
+        <v>106400</v>
       </c>
       <c r="R39" s="92">
         <f t="shared" si="5"/>
@@ -15219,19 +15262,19 @@
       </c>
       <c r="S39" s="93">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="T39" s="80">
         <f>SUM(T6:T38)</f>
-        <v>135908</v>
+        <v>136658</v>
       </c>
       <c r="U39" s="80">
         <f>SUM(U6:U38)</f>
-        <v>31140</v>
+        <v>91030</v>
       </c>
       <c r="V39" s="80">
         <f>SUM(V6:V38)</f>
-        <v>104768</v>
+        <v>45628</v>
       </c>
       <c r="W39" s="80">
         <f>SUM(W6:W38)</f>
@@ -15239,7 +15282,7 @@
       </c>
       <c r="X39" s="80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -15255,7 +15298,7 @@
       </c>
       <c r="Q40" s="118">
         <f>Q39-Q38-Q37-Q36</f>
-        <v>91900</v>
+        <v>92400</v>
       </c>
       <c r="R40" s="94" t="s">
         <v>8</v>
@@ -15300,14 +15343,14 @@
     <row r="42" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H42" s="119">
         <f>F29+P59</f>
-        <v>152923.5</v>
+        <v>151638.5</v>
       </c>
       <c r="M42" s="76" t="s">
         <v>36</v>
       </c>
       <c r="N42" s="98">
         <f>Q39</f>
-        <v>105900</v>
+        <v>106400</v>
       </c>
       <c r="O42" s="76"/>
       <c r="P42" s="76"/>
@@ -15318,7 +15361,7 @@
       <c r="S42" s="76"/>
       <c r="T42" s="99">
         <f>U39</f>
-        <v>31140</v>
+        <v>91030</v>
       </c>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
@@ -15333,7 +15376,7 @@
       </c>
       <c r="N43" s="98">
         <f>' NOVEMBER 21'!P59</f>
-        <v>-0.5</v>
+        <v>-6450.5</v>
       </c>
       <c r="O43" s="76"/>
       <c r="P43" s="76"/>
@@ -15344,7 +15387,7 @@
       <c r="S43" s="76"/>
       <c r="T43" s="98">
         <f>' NOVEMBER 21'!V59</f>
-        <v>-15620.5</v>
+        <v>-19120.5</v>
       </c>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
@@ -15357,7 +15400,7 @@
       </c>
       <c r="N44" s="98">
         <f>O39</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O44" s="76"/>
       <c r="P44" s="76"/>
@@ -15414,7 +15457,7 @@
       </c>
       <c r="N47" s="98">
         <f>S39</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="O47" s="76"/>
       <c r="P47" s="76"/>
@@ -15425,7 +15468,7 @@
       <c r="S47" s="76"/>
       <c r="T47" s="99">
         <f>X39</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
@@ -15452,7 +15495,7 @@
       </c>
       <c r="N49" s="99">
         <f>X39</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O49" s="98"/>
       <c r="P49" s="76"/>
@@ -15494,7 +15537,7 @@
       </c>
       <c r="O51" s="99">
         <f>N51*Q40</f>
-        <v>6433.0000000000009</v>
+        <v>6468.0000000000009</v>
       </c>
       <c r="P51" s="76"/>
       <c r="Q51" s="76"/>
@@ -15507,7 +15550,7 @@
       </c>
       <c r="U51" s="99">
         <f>T51*Q40</f>
-        <v>6433.0000000000009</v>
+        <v>6468.0000000000009</v>
       </c>
       <c r="V51" s="76"/>
       <c r="W51" s="76"/>
@@ -15535,15 +15578,23 @@
       <c r="X52" s="106"/>
     </row>
     <row r="53" spans="13:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M53" s="104"/>
+      <c r="M53" s="104" t="s">
+        <v>44</v>
+      </c>
       <c r="N53" s="103"/>
       <c r="O53" s="122"/>
-      <c r="P53" s="99"/>
+      <c r="P53" s="99">
+        <v>104462</v>
+      </c>
       <c r="Q53" s="99"/>
-      <c r="R53" s="104"/>
+      <c r="R53" s="104" t="s">
+        <v>44</v>
+      </c>
       <c r="S53" s="103"/>
       <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
+      <c r="U53" s="99">
+        <v>4773</v>
+      </c>
       <c r="V53" s="122"/>
       <c r="W53" s="99"/>
       <c r="X53" s="106"/>
@@ -15624,30 +15675,30 @@
       </c>
       <c r="N59" s="109">
         <f>N42+N43+N44+N45+N46+N47+N49+N48</f>
-        <v>119669.5</v>
+        <v>118419.5</v>
       </c>
       <c r="O59" s="109">
         <f>SUM(O51:O58)</f>
-        <v>6433.0000000000009</v>
+        <v>6468.0000000000009</v>
       </c>
       <c r="P59" s="125">
         <f>N59-O59</f>
-        <v>113236.5</v>
+        <v>111951.5</v>
       </c>
       <c r="Q59" s="109"/>
       <c r="R59" s="90"/>
       <c r="S59" s="90"/>
       <c r="T59" s="109">
         <f>T42+T43+T45+T47+T48</f>
-        <v>15519.5</v>
+        <v>73409.5</v>
       </c>
       <c r="U59" s="109">
         <f>SUM(U51:U58)</f>
-        <v>6433.0000000000009</v>
+        <v>11241</v>
       </c>
       <c r="V59" s="109">
         <f>T59-U59</f>
-        <v>9086.5</v>
+        <v>62168.5</v>
       </c>
       <c r="W59" s="109"/>
       <c r="X59" s="110"/>
@@ -15663,7 +15714,7 @@
       <c r="T60" s="70"/>
       <c r="U60" s="111">
         <f>U59-U51</f>
-        <v>0</v>
+        <v>4772.9999999999991</v>
       </c>
       <c r="V60" s="70"/>
       <c r="W60" s="70"/>
@@ -15711,6 +15762,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="H32:I32"/>
@@ -15720,12 +15777,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B10 M6:M38">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="VACCANT">
